--- a/C4RM_Class_01.xlsx
+++ b/C4RM_Class_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Library/CloudStorage/GoogleDrive-davethemovie@gmail.com/My Drive/Columbia/Classes/C4RM/Classfiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/AA/GoodStuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954B3D41-B0C1-7942-88FD-9B6156C8A2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0682F7-2B32-0C4D-ABEF-78A396E3DB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16260" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
   </bookViews>
@@ -34,7 +34,8 @@
     <sheet name="qMatrix" sheetId="14" r:id="rId19"/>
     <sheet name="qDataTypes" sheetId="15" state="hidden" r:id="rId20"/>
     <sheet name="qFizzBuzz" sheetId="16" r:id="rId21"/>
-    <sheet name="AWS" sheetId="30" r:id="rId22"/>
+    <sheet name="SQL_Math" sheetId="31" r:id="rId22"/>
+    <sheet name="AWS" sheetId="30" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">qOffice1_Filter!#REF!</definedName>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="164">
   <si>
     <t>Record Macro</t>
   </si>
@@ -572,6 +573,9 @@
   </si>
   <si>
     <t>ForEach</t>
+  </si>
+  <si>
+    <t>SQLite Online</t>
   </si>
 </sst>
 </file>
@@ -1579,6 +1583,229 @@
 </file>
 
 <file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435BCDE6-72A6-244E-9427-C560F9E0DA3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="622300"/>
+          <a:ext cx="3302000" cy="1765300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT round(2.5);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT ABS(-5);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT 1 + 1;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0402EFE7-0A0E-0542-9B57-1786186626A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="2641600"/>
+          <a:ext cx="3302000" cy="1765300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Homework</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Return ABS(-10)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Save the work in a sql file named math.sql</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3233,9 +3460,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3273,7 +3500,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3379,7 +3606,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3521,7 +3748,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -29312,6 +29539,34 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC46B2E-AF7C-824E-893C-6D199B827FC1}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{23FC01B4-513E-7843-ABD9-20EB8CDDF581}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F741DC12-B1E0-954F-AAB3-17B88101F84A}">
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FF7030A0"/>
